--- a/biology/Zoologie/Gryphaea_dilatata/Gryphaea_dilatata.xlsx
+++ b/biology/Zoologie/Gryphaea_dilatata/Gryphaea_dilatata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gryphaea dilatata est une espèce éteinte de mollusques fossiles (proches de l'huître) ayant vécu au Jurassique et au Crétacé.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un mollusque bivalve à coquille inéquivalve, sub-équilatérale au plan de commissure surélevé. Elle est de type monomyaire, dispose d'une charnière dysodonte, d'une aire ligamentaire striée et est recouverte de stries de croissance souvent bien visibles. La valve gauche, très bombée, est courbée en crochet ou griffe et la droite est plate et petite en forme d'opercule.
 </t>
